--- a/Document/DPV.TST/DPV.AA.EL.xlsx
+++ b/Document/DPV.TST/DPV.AA.EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Row</t>
   </si>
@@ -31,9 +31,6 @@
     <t>در سبد خرید، هنگام اعمال فرآیند تکمیل خرید، باید لیست موارد موجود در سبد خرید اسکرول گرفته و یک دیالوگ باکس با محتوای آدرس و زمان و تاریخ تحویل در پایین لیست قرار بگیرد.</t>
   </si>
   <si>
-    <t>با تایید آدرس و زمان تحویل کالا در سبد خرید، پیغامی مبنی بر ارسال سفارش به مصرف کننده نمایش داده شود.</t>
-  </si>
-  <si>
     <t>فرم ورود در تبلت باز نمیشد.</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>صفحه ی انتخاب فروشگاه هدر دارد. یعنی امکان انتخاب منو، جستجو و نمایش سبد خرید، قبل از انتخاب فروشگاه مجاز است ؟!</t>
   </si>
   <si>
-    <t>علیرغم تغییر تعداد کالا از حالت افقی به حالت عمودی، همچنان نام کالا با بار تعداد کالا تداخل مکانی دارد. (در موبایل) به همین دلیل در مواردی امکان افزودن کالا با مشکل مواجه میشود.</t>
-  </si>
-  <si>
     <t>مشکل عدم نمایش صفحه کلید (در تبلت) همچنان وجود دارد.</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>اطلاعات سرچ بار، پس از هر بار بسته شدن رفرش نمیشود و همچنان دارای آخرین محتوای تایپ شده در آن میباشد.</t>
   </si>
   <si>
-    <t>هنگام باز کردن منوی اصلی، با استفاده از دکمه ی Back گوشی امکان برگشتن به صفحه ی قبل و بسته شدن منوی اصلی را نداریم و App بسته میشود.</t>
-  </si>
-  <si>
     <t>در قسمت راهنما لطفا از سایه ها و ذکر امکانات هر دکمه استفاده کنید. Best practice : کافه بازار. این حالت در اولین بار نصب و راه اندازی بدون انتخاب راهنما اتوماتیک وار run میشود.</t>
   </si>
   <si>
@@ -74,13 +65,51 @@
   </si>
   <si>
     <t xml:space="preserve">در حال حاضر اگر اینترنت دستگاه قطع و یا ضعیف باشد، صفحه ی راه اندازی در حالت قفل باقی میماند. سناریو این است که app بصورت کامل کار کند فقط وقتی فرآیند check out انجام میشود، پیغام خطای عدم اتصال به اینترنت نمایش داده شود. </t>
+  </si>
+  <si>
+    <t>حل نشده</t>
+  </si>
+  <si>
+    <t>حل شده</t>
+  </si>
+  <si>
+    <t>؟؟</t>
+  </si>
+  <si>
+    <t>در انتظار سرویس Back</t>
+  </si>
+  <si>
+    <t>50% حل شده</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هنگام باز کردن منوی اصلی، با استفاده از دکمه ی Back گوشی امکان برگشتن به صفحه ی قبل و بسته شدن منوی اصلی را نداریم و App بسته میشود. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>/ در سرچ بار حل نشده</t>
+    </r>
+  </si>
+  <si>
+    <t>حل شده - در انتظار سرویس back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با تایید آدرس و زمان تحویل کالا در سبد خرید، پیغامی مبنی بر ارسال سفارش به مصرف کننده نمایش داده شود. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">علیرغم تغییر تعداد کالا از حالت افقی به حالت عمودی، همچنان نام کالا با بار تعداد کالا تداخل مکانی دارد. (در موبایل) به همین دلیل در مواردی امکان افزودن کالا با مشکل مواجه میشود. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +127,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
@@ -137,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -490,9 +528,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -501,7 +541,9 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -510,177 +552,210 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
